--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>5ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.021</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1100,12 +1115,24 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3">
+        <v>208</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.85319999999999996</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="20.25">
       <c r="A23" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,21 @@
   </si>
   <si>
     <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.022</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1135,12 +1150,24 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.56230000000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="20.25">
       <c r="A24" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,21 @@
   </si>
   <si>
     <t>3ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.023</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +710,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1170,12 +1185,24 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3">
+        <v>130</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.91620000000000001</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="20.25">
       <c r="A25" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最好成绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成绩百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,18 +106,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Two Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>26ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Medium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,18 +126,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3Sum Closest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Roman to Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,86 +154,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>89ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ZigZag Conversion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>43ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reverse Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String to Integer(atoi)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Palindrome Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>197ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Add Two Numbers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Longest Substring Without Repeating Characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Median of Two Sorted Arrays</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>59ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Longest Palindromic Substring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Remove Nth Node From End of List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,18 +194,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Valid Parentheses</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.021</t>
   </si>
   <si>
@@ -285,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No.023</t>
   </si>
   <si>
@@ -319,7 +231,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13ms</t>
+    <t>No.024</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好成绩(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -738,27 +661,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
+      <c r="E2" s="3">
+        <v>7</v>
       </c>
       <c r="F2" s="7">
         <v>0.81969999999999998</v>
@@ -766,19 +689,19 @@
     </row>
     <row r="3" spans="1:6" ht="20.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3">
         <v>1559</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>57</v>
+      <c r="E3" s="3">
+        <v>50</v>
       </c>
       <c r="F3" s="7">
         <v>0.85860000000000003</v>
@@ -786,19 +709,19 @@
     </row>
     <row r="4" spans="1:6" ht="20.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3">
         <v>982</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>59</v>
+      <c r="E4" s="3">
+        <v>42</v>
       </c>
       <c r="F4" s="7">
         <v>0.91359999999999997</v>
@@ -806,19 +729,19 @@
     </row>
     <row r="5" spans="1:6" ht="20.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>2080</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>61</v>
+      <c r="E5" s="3">
+        <v>59</v>
       </c>
       <c r="F5" s="7">
         <v>0.95989999999999998</v>
@@ -826,19 +749,19 @@
     </row>
     <row r="6" spans="1:6" ht="20.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
         <v>91</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>63</v>
+      <c r="E6" s="3">
+        <v>18</v>
       </c>
       <c r="F6" s="7">
         <v>0.88490000000000002</v>
@@ -846,19 +769,19 @@
     </row>
     <row r="7" spans="1:6" ht="20.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3">
         <v>1158</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>49</v>
+      <c r="E7" s="3">
+        <v>43</v>
       </c>
       <c r="F7" s="7">
         <v>0.97289999999999999</v>
@@ -866,19 +789,19 @@
     </row>
     <row r="8" spans="1:6" ht="20.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3">
         <v>1032</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
+      <c r="E8" s="3">
+        <v>35</v>
       </c>
       <c r="F8" s="7">
         <v>0.96460000000000001</v>
@@ -886,19 +809,19 @@
     </row>
     <row r="9" spans="1:6" ht="20.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3">
         <v>1047</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
+      <c r="E9" s="3">
+        <v>36</v>
       </c>
       <c r="F9" s="7">
         <v>0.97709999999999997</v>
@@ -906,19 +829,19 @@
     </row>
     <row r="10" spans="1:6" ht="20.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <v>11506</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>55</v>
+      <c r="E10" s="3">
+        <v>197</v>
       </c>
       <c r="F10" s="7">
         <v>0.82450000000000001</v>
@@ -926,19 +849,19 @@
     </row>
     <row r="11" spans="1:6" ht="20.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3">
         <v>445</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>47</v>
+      <c r="E11" s="3">
+        <v>29</v>
       </c>
       <c r="F11" s="7">
         <v>0.8246</v>
@@ -946,19 +869,19 @@
     </row>
     <row r="12" spans="1:6" ht="20.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
+      <c r="E12" s="3">
+        <v>8</v>
       </c>
       <c r="F12" s="7">
         <v>0.85119999999999996</v>
@@ -966,19 +889,19 @@
     </row>
     <row r="13" spans="1:6" ht="20.25">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3">
         <v>3999</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
+      <c r="E13" s="3">
+        <v>89</v>
       </c>
       <c r="F13" s="7">
         <v>0.88680000000000003</v>
@@ -986,19 +909,19 @@
     </row>
     <row r="14" spans="1:6" ht="20.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3">
         <v>3999</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
+      <c r="E14" s="3">
+        <v>84</v>
       </c>
       <c r="F14" s="7">
         <v>0.98370000000000002</v>
@@ -1006,19 +929,19 @@
     </row>
     <row r="15" spans="1:6" ht="20.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3">
         <v>117</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>39</v>
+      <c r="E15" s="3">
+        <v>9</v>
       </c>
       <c r="F15" s="7">
         <v>0.94689999999999996</v>
@@ -1026,19 +949,19 @@
     </row>
     <row r="16" spans="1:6" ht="20.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3">
         <v>311</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
+      <c r="E16" s="3">
+        <v>26</v>
       </c>
       <c r="F16" s="7">
         <v>0.94979999999999998</v>
@@ -1046,19 +969,19 @@
     </row>
     <row r="17" spans="1:6" ht="20.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3">
         <v>121</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>36</v>
+      <c r="E17" s="3">
+        <v>19</v>
       </c>
       <c r="F17" s="7">
         <v>0.86309999999999998</v>
@@ -1066,19 +989,19 @@
     </row>
     <row r="18" spans="1:6" ht="20.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3">
         <v>25</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
+      <c r="E18" s="3">
+        <v>3</v>
       </c>
       <c r="F18" s="7">
         <v>0.80449999999999999</v>
@@ -1086,19 +1009,19 @@
     </row>
     <row r="19" spans="1:6" ht="20.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3">
         <v>282</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
+      <c r="E19" s="3">
+        <v>26</v>
       </c>
       <c r="F19" s="7">
         <v>0.97809999999999997</v>
@@ -1106,19 +1029,19 @@
     </row>
     <row r="20" spans="1:6" ht="20.25">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3">
         <v>207</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
+      <c r="E20" s="3">
+        <v>14</v>
       </c>
       <c r="F20" s="7">
         <v>0.81799999999999995</v>
@@ -1126,19 +1049,19 @@
     </row>
     <row r="21" spans="1:6" ht="20.25">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3">
         <v>65</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>68</v>
+      <c r="E21" s="3">
+        <v>5</v>
       </c>
       <c r="F21" s="7">
         <v>0.97240000000000004</v>
@@ -1146,19 +1069,19 @@
     </row>
     <row r="22" spans="1:6" ht="20.25">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3">
         <v>208</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>71</v>
+      <c r="E22" s="3">
+        <v>14</v>
       </c>
       <c r="F22" s="7">
         <v>0.85319999999999996</v>
@@ -1166,19 +1089,19 @@
     </row>
     <row r="23" spans="1:6" ht="20.25">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3">
         <v>8</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>76</v>
+      <c r="E23" s="3">
+        <v>3</v>
       </c>
       <c r="F23" s="7">
         <v>0.56230000000000002</v>
@@ -1186,31 +1109,43 @@
     </row>
     <row r="24" spans="1:6" ht="20.25">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3">
         <v>130</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>80</v>
+      <c r="E24" s="3">
+        <v>13</v>
       </c>
       <c r="F24" s="7">
         <v>0.91620000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3">
+        <v>55</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.75649999999999995</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="20.25">
       <c r="A26" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,17 @@
   </si>
   <si>
     <t>最好成绩(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.025</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,18 +643,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="71" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -1148,12 +1159,24 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="3">
+        <v>81</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.80379999999999996</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="20.25">
       <c r="A27" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,17 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.026</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1179,12 +1190,24 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="3">
+        <v>161</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.92130000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="20.25">
       <c r="A28" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,17 @@
   </si>
   <si>
     <t>Remove Duplicates from Sorted Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.027</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -654,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1210,12 +1221,24 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="3">
+        <v>113</v>
+      </c>
+      <c r="E28" s="3">
+        <v>8</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.91900000000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="20.25">
       <c r="A29" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,17 @@
   </si>
   <si>
     <t>Remove Element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.028</t>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,7 +677,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1241,12 +1252,24 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="3">
+        <v>73</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.90780000000000005</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="20.25">
       <c r="A30" s="3"/>

--- a/算法时间记录.xlsx
+++ b/算法时间记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="77">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,17 @@
   </si>
   <si>
     <t>Easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No.029</t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1272,12 +1283,24 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3">
+        <v>988</v>
+      </c>
+      <c r="E30" s="3">
+        <v>37</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.82640000000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="20.25">
       <c r="A31" s="3"/>
